--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/D道具合成配方表_Synth_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/D道具合成配方表_Synth_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB189513-9238-4801-8535-8FD6A3D40E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF59E9-2534-47FD-90C8-A7A3AE67C3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -172,118 +172,117 @@
     <t>力量药剂制作</t>
   </si>
   <si>
-    <t>Elixir de Cura</t>
-  </si>
-  <si>
-    <t>Elixir de Mana</t>
-  </si>
-  <si>
-    <t>Elixir da Fúria</t>
-  </si>
-  <si>
-    <t>Elixir Vampírico</t>
+    <t>Poção de Força</t>
+  </si>
+  <si>
+    <t>Poção Tóxica</t>
+  </si>
+  <si>
+    <t>Orbe de Recuperação</t>
+  </si>
+  <si>
+    <t>Orbe Restaurador</t>
+  </si>
+  <si>
+    <t>Poção de Recuperação</t>
+  </si>
+  <si>
+    <t>Poção de Vigor</t>
+  </si>
+  <si>
+    <t>Poção Sanguinária</t>
+  </si>
+  <si>
+    <t>Poção de Resistência</t>
+  </si>
+  <si>
+    <t>Poção Incendiária</t>
+  </si>
+  <si>
+    <t>Poção do Gigante da Montanha</t>
+  </si>
+  <si>
+    <t>Poção de Feitiçaria</t>
+  </si>
+  <si>
+    <t>Poção das Sombras</t>
+  </si>
+  <si>
+    <t>Pergaminho da Dissimulação</t>
+  </si>
+  <si>
+    <t>Pergaminho da Convocação do Lobo</t>
+  </si>
+  <si>
+    <t>Pergaminho do Impacto dos Ventos</t>
+  </si>
+  <si>
+    <t>Pergaminho do Vórtice Sombrio</t>
+  </si>
+  <si>
+    <t>Pergaminho do Poder do Vento de Areia</t>
+  </si>
+  <si>
+    <t>Pergaminho da Lua Enganadora</t>
+  </si>
+  <si>
+    <t>Pergaminho da Prisão das Profundezas</t>
+  </si>
+  <si>
+    <t>Pergaminho do Rugido do Medo</t>
+  </si>
+  <si>
+    <t>Pergaminho do Refúgio da Árvore</t>
+  </si>
+  <si>
+    <t>Pergaminho do Brilho das Estrelas</t>
+  </si>
+  <si>
+    <t>Pergaminho da Fúria Mágica</t>
+  </si>
+  <si>
+    <t>Pergaminho da Ressurreição</t>
+  </si>
+  <si>
+    <t>Pergaminho da Nova Estrela de Fogo</t>
+  </si>
+  <si>
+    <t>Pergaminho da Dança das Chamas</t>
+  </si>
+  <si>
+    <t>Elixir da Rosa Branca - Pequeno</t>
+  </si>
+  <si>
+    <t>Elixir da Rosa Branca - Médio</t>
+  </si>
+  <si>
+    <t>Elixir da Rosa Branca - Grande</t>
+  </si>
+  <si>
+    <t>Poção do Berserk</t>
+  </si>
+  <si>
+    <t>Elixir de Resiliência</t>
   </si>
   <si>
     <t>Elixir de Força</t>
   </si>
   <si>
-    <t>Elixir de Resiliência</t>
-  </si>
-  <si>
-    <t>Elixir Tóxico</t>
-  </si>
-  <si>
-    <t>Elixir Ardente</t>
-  </si>
-  <si>
-    <t>Elixir do Gigante Alpino</t>
-  </si>
-  <si>
-    <t>Elixir Arcano</t>
-  </si>
-  <si>
-    <t>Elixir da Sombra</t>
-  </si>
-  <si>
-    <t>Pergaminho da Miragem</t>
-  </si>
-  <si>
-    <t>Pergaminho do Chamador de Lobos</t>
-  </si>
-  <si>
-    <t>Pergaminho da Rajada</t>
-  </si>
-  <si>
-    <t>Pergaminho da Escuridão</t>
-  </si>
-  <si>
-    <t>Pergaminho do Rastreador do Deserto</t>
-  </si>
-  <si>
-    <t>Pergaminho da Lua Louca</t>
-  </si>
-  <si>
-    <t>Pergaminho do Terror</t>
-  </si>
-  <si>
-    <t>Pergaminho da Proteção da Natureza</t>
-  </si>
-  <si>
-    <t>Pergaminho da Luz das Estrelas</t>
-  </si>
-  <si>
-    <t>Pergaminho do Berserker</t>
-  </si>
-  <si>
-    <t>Pergaminho do Renascimento</t>
-  </si>
-  <si>
-    <t>Pergaminho da Nova Flamejante</t>
-  </si>
-  <si>
-    <t>Pergaminho da Rajada de Chamas</t>
-  </si>
-  <si>
-    <t>Pergaminho de Ligação Abissal</t>
-  </si>
-  <si>
-    <t>Poção da Rosa Branca (Pequena)</t>
-  </si>
-  <si>
-    <t>Poção da Rosa Branca (Média)</t>
-  </si>
-  <si>
-    <t>Poção da Rosa Branca (Grande)</t>
-  </si>
-  <si>
-    <t>Orbe de Recuperação</t>
-  </si>
-  <si>
-    <t>Orbe Restaurador</t>
-  </si>
-  <si>
-    <t>Orbe Arcano</t>
-  </si>
-  <si>
-    <t>Orbe de Poço de Mana</t>
+    <t>Orbe de Recuperação Arcano</t>
+  </si>
+  <si>
+    <t>Orbe de Mana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,39 +380,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,13 +719,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36">
@@ -750,8 +748,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>50</v>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -761,8 +759,8 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>51</v>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -772,8 +770,8 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>52</v>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -783,8 +781,8 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -794,8 +792,8 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>54</v>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -805,8 +803,8 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>55</v>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -816,8 +814,8 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>56</v>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -827,8 +825,8 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>57</v>
+      <c r="C9" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24">
@@ -838,8 +836,8 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>58</v>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -849,8 +847,8 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>59</v>
+      <c r="C11" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -860,8 +858,8 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>60</v>
+      <c r="C12" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24">
@@ -871,8 +869,8 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -882,8 +880,8 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>62</v>
+      <c r="C14" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24">
@@ -893,8 +891,8 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>63</v>
+      <c r="C15" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24">
@@ -904,8 +902,8 @@
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>64</v>
+      <c r="C16" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24">
@@ -915,8 +913,8 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>65</v>
+      <c r="C17" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24">
@@ -926,8 +924,8 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>66</v>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24">
@@ -937,8 +935,8 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>74</v>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24">
@@ -948,8 +946,8 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>67</v>
+      <c r="C20" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24">
@@ -959,8 +957,8 @@
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>68</v>
+      <c r="C21" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24">
@@ -970,8 +968,8 @@
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>69</v>
+      <c r="C22" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24">
@@ -981,8 +979,8 @@
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>70</v>
+      <c r="C23" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -992,8 +990,8 @@
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>71</v>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24">
@@ -1003,8 +1001,8 @@
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>72</v>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24">
@@ -1015,7 +1013,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24">
@@ -1026,7 +1024,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24">
@@ -1037,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24">
@@ -1048,7 +1046,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24">
@@ -1059,7 +1057,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24">
@@ -1070,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24">
@@ -1081,7 +1079,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24">
@@ -1092,7 +1090,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24">
@@ -1103,7 +1101,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24">
@@ -1114,7 +1112,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
